--- a/FinalProjectItBootcamp/data/pet-store-data.xlsx
+++ b/FinalProjectItBootcamp/data/pet-store-data.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14904" windowHeight="3636" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cart_items" sheetId="1" r:id="rId1"/>
     <sheet name="users" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:G7"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="529">
   <si>
     <t>ITEM_ID</t>
   </si>
@@ -1410,13 +1411,206 @@
   </si>
   <si>
     <t>https://petstore.octoperf.com/actions/Catalog.action?viewItem=&amp;itemId=EST-13</t>
+  </si>
+  <si>
+    <t>8cbc3</t>
+  </si>
+  <si>
+    <t>0a4a7</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>a4bad</t>
+  </si>
+  <si>
+    <t>japanese</t>
+  </si>
+  <si>
+    <t>BIRDS</t>
+  </si>
+  <si>
+    <t>b934b</t>
+  </si>
+  <si>
+    <t>6da17</t>
+  </si>
+  <si>
+    <t>CATS</t>
+  </si>
+  <si>
+    <t>459d1</t>
+  </si>
+  <si>
+    <t>DOGS</t>
+  </si>
+  <si>
+    <t>d1acd</t>
+  </si>
+  <si>
+    <t>FISH</t>
+  </si>
+  <si>
+    <t>f4551</t>
+  </si>
+  <si>
+    <t>2d5e6</t>
+  </si>
+  <si>
+    <t>4d2ca</t>
+  </si>
+  <si>
+    <t>15da4</t>
+  </si>
+  <si>
+    <t>655f0</t>
+  </si>
+  <si>
+    <t>2ec11</t>
+  </si>
+  <si>
+    <t>45cbe</t>
+  </si>
+  <si>
+    <t>0536e</t>
+  </si>
+  <si>
+    <t>1d1a8</t>
+  </si>
+  <si>
+    <t>84ba3</t>
+  </si>
+  <si>
+    <t>REPTILES</t>
+  </si>
+  <si>
+    <t>52223</t>
+  </si>
+  <si>
+    <t>87ac3</t>
+  </si>
+  <si>
+    <t>79d8b</t>
+  </si>
+  <si>
+    <t>21acd</t>
+  </si>
+  <si>
+    <t>a9e46</t>
+  </si>
+  <si>
+    <t>9f863</t>
+  </si>
+  <si>
+    <t>c9b0d</t>
+  </si>
+  <si>
+    <t>7de74</t>
+  </si>
+  <si>
+    <t>c5651</t>
+  </si>
+  <si>
+    <t>61321</t>
+  </si>
+  <si>
+    <t>62197</t>
+  </si>
+  <si>
+    <t>d9d98</t>
+  </si>
+  <si>
+    <t>62d46</t>
+  </si>
+  <si>
+    <t>74e9d</t>
+  </si>
+  <si>
+    <t>b315e</t>
+  </si>
+  <si>
+    <t>79c2e</t>
+  </si>
+  <si>
+    <t>d5b84</t>
+  </si>
+  <si>
+    <t>15a46</t>
+  </si>
+  <si>
+    <t>c9b23</t>
+  </si>
+  <si>
+    <t>6b3af</t>
+  </si>
+  <si>
+    <t>d3423</t>
+  </si>
+  <si>
+    <t>f61a0</t>
+  </si>
+  <si>
+    <t>c3db1</t>
+  </si>
+  <si>
+    <t>1d832</t>
+  </si>
+  <si>
+    <t>0a7fc</t>
+  </si>
+  <si>
+    <t>b9d59</t>
+  </si>
+  <si>
+    <t>70894</t>
+  </si>
+  <si>
+    <t>ffad4</t>
+  </si>
+  <si>
+    <t>859c9</t>
+  </si>
+  <si>
+    <t>bb41c</t>
+  </si>
+  <si>
+    <t>4a5c8</t>
+  </si>
+  <si>
+    <t>7d518</t>
+  </si>
+  <si>
+    <t>d5830</t>
+  </si>
+  <si>
+    <t>1d61f</t>
+  </si>
+  <si>
+    <t>af105</t>
+  </si>
+  <si>
+    <t>71876</t>
+  </si>
+  <si>
+    <t>a68a4</t>
+  </si>
+  <si>
+    <t>b2397</t>
+  </si>
+  <si>
+    <t>25672</t>
+  </si>
+  <si>
+    <t>29764</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1497,7 +1691,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1535,6 +1729,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1543,7 +1748,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1576,6 +1781,9 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1583,6 +1791,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1629,7 +1845,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1661,9 +1877,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1695,6 +1912,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1870,20 +2088,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="108" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="28.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="108.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1891,7 +2109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>445</v>
       </c>
@@ -1899,7 +2117,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>447</v>
       </c>
@@ -1907,7 +2125,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>449</v>
       </c>
@@ -1915,7 +2133,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>452</v>
       </c>
@@ -1923,7 +2141,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>454</v>
       </c>
@@ -1931,7 +2149,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>455</v>
       </c>
@@ -1939,7 +2157,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>458</v>
       </c>
@@ -1947,7 +2165,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>460</v>
       </c>
@@ -1955,7 +2173,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>462</v>
       </c>
@@ -1963,7 +2181,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>463</v>
       </c>
@@ -1989,23 +2207,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="17.28515625" style="3"/>
-    <col min="5" max="5" width="25.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="3"/>
-    <col min="7" max="7" width="27.42578125" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="17.28515625" style="3"/>
+    <col min="1" max="4" style="3" width="17.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="25.88671875" collapsed="true"/>
+    <col min="6" max="6" style="3" width="17.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="27.44140625" collapsed="true"/>
+    <col min="8" max="16384" style="3" width="17.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30.75" thickBot="1">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2043,9 +2261,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A2" s="4">
-        <v>1</v>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>478</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
@@ -2080,10 +2298,16 @@
       <c r="L2" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A3" s="4">
-        <v>2</v>
+      <c r="M2" t="s">
+        <v>467</v>
+      </c>
+      <c r="N2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>479</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>24</v>
@@ -2118,10 +2342,16 @@
       <c r="L3" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="58.5" thickBot="1">
-      <c r="A4" s="7">
-        <v>3</v>
+      <c r="M3" t="s">
+        <v>467</v>
+      </c>
+      <c r="N3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>480</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>33</v>
@@ -2156,10 +2386,16 @@
       <c r="L4" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="58.5" thickBot="1">
-      <c r="A5" s="4">
-        <v>4</v>
+      <c r="M4" t="s">
+        <v>469</v>
+      </c>
+      <c r="N4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>481</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>42</v>
@@ -2194,10 +2430,16 @@
       <c r="L5" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A6" s="4">
-        <v>5</v>
+      <c r="M5" t="s">
+        <v>469</v>
+      </c>
+      <c r="N5" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>482</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>51</v>
@@ -2232,10 +2474,16 @@
       <c r="L6" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A7" s="7">
-        <v>6</v>
+      <c r="M6" t="s">
+        <v>469</v>
+      </c>
+      <c r="N6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>483</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>60</v>
@@ -2270,10 +2518,16 @@
       <c r="L7" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A8" s="4">
-        <v>7</v>
+      <c r="M7" t="s">
+        <v>467</v>
+      </c>
+      <c r="N7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>484</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>69</v>
@@ -2308,10 +2562,16 @@
       <c r="L8" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A9" s="4">
-        <v>8</v>
+      <c r="M8" t="s">
+        <v>469</v>
+      </c>
+      <c r="N8" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>485</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>78</v>
@@ -2346,10 +2606,16 @@
       <c r="L9" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="58.5" thickBot="1">
-      <c r="A10" s="7">
-        <v>9</v>
+      <c r="M9" t="s">
+        <v>467</v>
+      </c>
+      <c r="N9" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>486</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>87</v>
@@ -2384,10 +2650,16 @@
       <c r="L10" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="58.5" thickBot="1">
-      <c r="A11" s="4">
-        <v>10</v>
+      <c r="M10" t="s">
+        <v>467</v>
+      </c>
+      <c r="N10" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>487</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>96</v>
@@ -2422,10 +2694,16 @@
       <c r="L11" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="58.5" thickBot="1">
-      <c r="A12" s="4">
-        <v>11</v>
+      <c r="M11" t="s">
+        <v>469</v>
+      </c>
+      <c r="N11" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>489</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>105</v>
@@ -2460,10 +2738,16 @@
       <c r="L12" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A13" s="7">
-        <v>12</v>
+      <c r="M12" t="s">
+        <v>469</v>
+      </c>
+      <c r="N12" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>490</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>114</v>
@@ -2498,10 +2782,16 @@
       <c r="L13" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A14" s="4">
-        <v>13</v>
+      <c r="M13" t="s">
+        <v>469</v>
+      </c>
+      <c r="N13" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>123</v>
@@ -2536,10 +2826,16 @@
       <c r="L14" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A15" s="4">
-        <v>14</v>
+      <c r="M14" t="s">
+        <v>467</v>
+      </c>
+      <c r="N14" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>492</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>131</v>
@@ -2574,10 +2870,16 @@
       <c r="L15" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A16" s="7">
-        <v>15</v>
+      <c r="M15" t="s">
+        <v>467</v>
+      </c>
+      <c r="N15" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>493</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>139</v>
@@ -2612,10 +2914,16 @@
       <c r="L16" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A17" s="4">
-        <v>16</v>
+      <c r="M16" t="s">
+        <v>467</v>
+      </c>
+      <c r="N16" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>494</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>148</v>
@@ -2650,10 +2958,16 @@
       <c r="L17" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A18" s="4">
-        <v>17</v>
+      <c r="M17" t="s">
+        <v>469</v>
+      </c>
+      <c r="N17" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>495</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>156</v>
@@ -2688,10 +3002,16 @@
       <c r="L18" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A19" s="7">
-        <v>18</v>
+      <c r="M18" t="s">
+        <v>469</v>
+      </c>
+      <c r="N18" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>496</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>165</v>
@@ -2726,10 +3046,16 @@
       <c r="L19" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A20" s="4">
-        <v>19</v>
+      <c r="M19" t="s">
+        <v>469</v>
+      </c>
+      <c r="N19" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>497</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>173</v>
@@ -2764,10 +3090,16 @@
       <c r="L20" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A21" s="4">
-        <v>20</v>
+      <c r="M20" t="s">
+        <v>467</v>
+      </c>
+      <c r="N20" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>498</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>181</v>
@@ -2802,10 +3134,16 @@
       <c r="L21" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A22" s="7">
-        <v>21</v>
+      <c r="M21" t="s">
+        <v>467</v>
+      </c>
+      <c r="N21" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>499</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>190</v>
@@ -2840,10 +3178,16 @@
       <c r="L22" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="58.5" thickBot="1">
-      <c r="A23" s="4">
-        <v>22</v>
+      <c r="M22" t="s">
+        <v>467</v>
+      </c>
+      <c r="N22" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>500</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>199</v>
@@ -2878,10 +3222,16 @@
       <c r="L23" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A24" s="4">
-        <v>23</v>
+      <c r="M23" t="s">
+        <v>469</v>
+      </c>
+      <c r="N23" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>501</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>207</v>
@@ -2916,10 +3266,16 @@
       <c r="L24" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="58.5" thickBot="1">
-      <c r="A25" s="7">
-        <v>24</v>
+      <c r="M24" t="s">
+        <v>469</v>
+      </c>
+      <c r="N24" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>502</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>216</v>
@@ -2954,10 +3310,16 @@
       <c r="L25" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="58.5" thickBot="1">
-      <c r="A26" s="4">
-        <v>25</v>
+      <c r="M25" t="s">
+        <v>467</v>
+      </c>
+      <c r="N25" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>225</v>
@@ -2992,10 +3354,16 @@
       <c r="L26" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="58.5" thickBot="1">
-      <c r="A27" s="4">
-        <v>26</v>
+      <c r="M26" t="s">
+        <v>469</v>
+      </c>
+      <c r="N26" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>504</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>234</v>
@@ -3030,10 +3398,16 @@
       <c r="L27" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A28" s="7">
-        <v>27</v>
+      <c r="M27" t="s">
+        <v>467</v>
+      </c>
+      <c r="N27" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>505</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>243</v>
@@ -3068,10 +3442,16 @@
       <c r="L28" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="58.5" thickBot="1">
-      <c r="A29" s="4">
-        <v>28</v>
+      <c r="M28" t="s">
+        <v>467</v>
+      </c>
+      <c r="N28" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>506</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>251</v>
@@ -3106,10 +3486,16 @@
       <c r="L29" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A30" s="4">
-        <v>29</v>
+      <c r="M29" t="s">
+        <v>467</v>
+      </c>
+      <c r="N29" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>507</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>259</v>
@@ -3144,10 +3530,16 @@
       <c r="L30" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="58.5" thickBot="1">
-      <c r="A31" s="7">
-        <v>30</v>
+      <c r="M30" t="s">
+        <v>467</v>
+      </c>
+      <c r="N30" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
+        <v>508</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>268</v>
@@ -3182,10 +3574,16 @@
       <c r="L31" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A32" s="4">
-        <v>31</v>
+      <c r="M31" t="s">
+        <v>469</v>
+      </c>
+      <c r="N31" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>276</v>
@@ -3220,10 +3618,16 @@
       <c r="L32" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="58.5" thickBot="1">
-      <c r="A33" s="4">
-        <v>32</v>
+      <c r="M32" t="s">
+        <v>467</v>
+      </c>
+      <c r="N32" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>510</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>284</v>
@@ -3258,10 +3662,16 @@
       <c r="L33" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A34" s="7">
-        <v>33</v>
+      <c r="M33" t="s">
+        <v>469</v>
+      </c>
+      <c r="N33" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
+        <v>511</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>292</v>
@@ -3296,10 +3706,16 @@
       <c r="L34" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="58.5" thickBot="1">
-      <c r="A35" s="4">
-        <v>34</v>
+      <c r="M34" t="s">
+        <v>469</v>
+      </c>
+      <c r="N34" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>301</v>
@@ -3334,10 +3750,16 @@
       <c r="L35" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="58.5" thickBot="1">
-      <c r="A36" s="4">
-        <v>35</v>
+      <c r="M35" t="s">
+        <v>467</v>
+      </c>
+      <c r="N35" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>310</v>
@@ -3372,10 +3794,16 @@
       <c r="L36" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A37" s="7">
-        <v>36</v>
+      <c r="M36" t="s">
+        <v>469</v>
+      </c>
+      <c r="N36" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="7" t="s">
+        <v>514</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>319</v>
@@ -3410,10 +3838,16 @@
       <c r="L37" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A38" s="4">
-        <v>37</v>
+      <c r="M37" t="s">
+        <v>469</v>
+      </c>
+      <c r="N37" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>515</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>327</v>
@@ -3448,10 +3882,16 @@
       <c r="L38" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="58.5" thickBot="1">
-      <c r="A39" s="4">
-        <v>38</v>
+      <c r="M38" t="s">
+        <v>467</v>
+      </c>
+      <c r="N38" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>516</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>336</v>
@@ -3486,10 +3926,16 @@
       <c r="L39" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A40" s="7">
-        <v>39</v>
+      <c r="M39" t="s">
+        <v>469</v>
+      </c>
+      <c r="N39" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="7" t="s">
+        <v>517</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>344</v>
@@ -3524,10 +3970,16 @@
       <c r="L40" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A41" s="4">
-        <v>40</v>
+      <c r="M40" t="s">
+        <v>469</v>
+      </c>
+      <c r="N40" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>518</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>352</v>
@@ -3562,10 +4014,16 @@
       <c r="L41" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="58.5" thickBot="1">
-      <c r="A42" s="4">
-        <v>41</v>
+      <c r="M41" t="s">
+        <v>467</v>
+      </c>
+      <c r="N41" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>519</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>360</v>
@@ -3600,10 +4058,16 @@
       <c r="L42" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A43" s="7">
-        <v>42</v>
+      <c r="M42" t="s">
+        <v>469</v>
+      </c>
+      <c r="N42" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="7" t="s">
+        <v>520</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>368</v>
@@ -3638,10 +4102,16 @@
       <c r="L43" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="58.5" thickBot="1">
-      <c r="A44" s="4">
-        <v>43</v>
+      <c r="M43" t="s">
+        <v>469</v>
+      </c>
+      <c r="N43" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>521</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>377</v>
@@ -3676,10 +4146,16 @@
       <c r="L44" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="58.5" thickBot="1">
-      <c r="A45" s="4">
-        <v>44</v>
+      <c r="M44" t="s">
+        <v>469</v>
+      </c>
+      <c r="N44" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>522</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>386</v>
@@ -3714,10 +4190,16 @@
       <c r="L45" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A46" s="7">
-        <v>45</v>
+      <c r="M45" t="s">
+        <v>469</v>
+      </c>
+      <c r="N45" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="7" t="s">
+        <v>523</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>394</v>
@@ -3752,10 +4234,16 @@
       <c r="L46" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="58.5" thickBot="1">
-      <c r="A47" s="4">
-        <v>46</v>
+      <c r="M46" t="s">
+        <v>469</v>
+      </c>
+      <c r="N46" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>524</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>402</v>
@@ -3790,10 +4278,16 @@
       <c r="L47" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A48" s="4">
-        <v>47</v>
+      <c r="M47" t="s">
+        <v>467</v>
+      </c>
+      <c r="N47" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>525</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>410</v>
@@ -3828,10 +4322,16 @@
       <c r="L48" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A49" s="7">
-        <v>48</v>
+      <c r="M48" t="s">
+        <v>467</v>
+      </c>
+      <c r="N48" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="7" t="s">
+        <v>526</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>418</v>
@@ -3866,10 +4366,16 @@
       <c r="L49" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A50" s="4">
-        <v>49</v>
+      <c r="M49" t="s">
+        <v>469</v>
+      </c>
+      <c r="N49" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
+        <v>527</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>427</v>
@@ -3904,10 +4410,16 @@
       <c r="L50" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A51" s="4">
-        <v>50</v>
+      <c r="M50" t="s">
+        <v>469</v>
+      </c>
+      <c r="N50" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
+        <v>528</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>436</v>
@@ -3942,6 +4454,15 @@
       <c r="L51" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M51" t="s">
+        <v>467</v>
+      </c>
+      <c r="N51" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FinalProjectItBootcamp/data/pet-store-data.xlsx
+++ b/FinalProjectItBootcamp/data/pet-store-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="581">
   <si>
     <t>ITEM_ID</t>
   </si>
@@ -1603,6 +1603,162 @@
   </si>
   <si>
     <t>29764</t>
+  </si>
+  <si>
+    <t>6b769</t>
+  </si>
+  <si>
+    <t>16395</t>
+  </si>
+  <si>
+    <t>0e81f</t>
+  </si>
+  <si>
+    <t>37326</t>
+  </si>
+  <si>
+    <t>bd523</t>
+  </si>
+  <si>
+    <t>ba25b</t>
+  </si>
+  <si>
+    <t>98a36</t>
+  </si>
+  <si>
+    <t>456ff</t>
+  </si>
+  <si>
+    <t>15ff7</t>
+  </si>
+  <si>
+    <t>c702c</t>
+  </si>
+  <si>
+    <t>9b6b6</t>
+  </si>
+  <si>
+    <t>f7b60</t>
+  </si>
+  <si>
+    <t>3c8da</t>
+  </si>
+  <si>
+    <t>40bef</t>
+  </si>
+  <si>
+    <t>2d019</t>
+  </si>
+  <si>
+    <t>a51dc</t>
+  </si>
+  <si>
+    <t>12a77</t>
+  </si>
+  <si>
+    <t>81cf9</t>
+  </si>
+  <si>
+    <t>bba0b</t>
+  </si>
+  <si>
+    <t>7763e</t>
+  </si>
+  <si>
+    <t>0078f</t>
+  </si>
+  <si>
+    <t>c013c</t>
+  </si>
+  <si>
+    <t>8b8c3</t>
+  </si>
+  <si>
+    <t>55946</t>
+  </si>
+  <si>
+    <t>ced6f</t>
+  </si>
+  <si>
+    <t>65daf</t>
+  </si>
+  <si>
+    <t>a4cb2</t>
+  </si>
+  <si>
+    <t>5193c</t>
+  </si>
+  <si>
+    <t>0339c</t>
+  </si>
+  <si>
+    <t>05348</t>
+  </si>
+  <si>
+    <t>286d5</t>
+  </si>
+  <si>
+    <t>ebe89</t>
+  </si>
+  <si>
+    <t>ab1c5</t>
+  </si>
+  <si>
+    <t>b7889</t>
+  </si>
+  <si>
+    <t>f5581</t>
+  </si>
+  <si>
+    <t>d9296</t>
+  </si>
+  <si>
+    <t>3c853</t>
+  </si>
+  <si>
+    <t>6062c</t>
+  </si>
+  <si>
+    <t>dfb83</t>
+  </si>
+  <si>
+    <t>b731b</t>
+  </si>
+  <si>
+    <t>6aefa</t>
+  </si>
+  <si>
+    <t>cd87e</t>
+  </si>
+  <si>
+    <t>b35bb</t>
+  </si>
+  <si>
+    <t>1f2f3</t>
+  </si>
+  <si>
+    <t>35bb0</t>
+  </si>
+  <si>
+    <t>c3737</t>
+  </si>
+  <si>
+    <t>57e24</t>
+  </si>
+  <si>
+    <t>5ef7a</t>
+  </si>
+  <si>
+    <t>1fdd2</t>
+  </si>
+  <si>
+    <t>6b668</t>
+  </si>
+  <si>
+    <t>b7fa7</t>
+  </si>
+  <si>
+    <t>f6abb</t>
   </si>
 </sst>
 </file>
@@ -2263,7 +2419,7 @@
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>478</v>
+        <v>531</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
@@ -2302,12 +2458,12 @@
         <v>467</v>
       </c>
       <c r="N2" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>479</v>
+        <v>532</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>24</v>
@@ -2346,12 +2502,12 @@
         <v>467</v>
       </c>
       <c r="N3" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>480</v>
+        <v>533</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>33</v>
@@ -2390,12 +2546,12 @@
         <v>469</v>
       </c>
       <c r="N4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>481</v>
+        <v>534</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>42</v>
@@ -2431,15 +2587,15 @@
         <v>23</v>
       </c>
       <c r="M5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N5" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>482</v>
+        <v>535</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>51</v>
@@ -2478,12 +2634,12 @@
         <v>469</v>
       </c>
       <c r="N6" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>483</v>
+        <v>536</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>60</v>
@@ -2522,12 +2678,12 @@
         <v>467</v>
       </c>
       <c r="N7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>484</v>
+        <v>537</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>69</v>
@@ -2566,12 +2722,12 @@
         <v>469</v>
       </c>
       <c r="N8" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>485</v>
+        <v>538</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>78</v>
@@ -2607,15 +2763,15 @@
         <v>23</v>
       </c>
       <c r="M9" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="N9" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>486</v>
+        <v>539</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>87</v>
@@ -2651,15 +2807,15 @@
         <v>23</v>
       </c>
       <c r="M10" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="N10" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>487</v>
+        <v>540</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>96</v>
@@ -2698,12 +2854,12 @@
         <v>469</v>
       </c>
       <c r="N11" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>489</v>
+        <v>541</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>105</v>
@@ -2739,7 +2895,7 @@
         <v>23</v>
       </c>
       <c r="M12" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N12" t="s">
         <v>488</v>
@@ -2747,7 +2903,7 @@
     </row>
     <row r="13" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>490</v>
+        <v>542</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>114</v>
@@ -2783,15 +2939,15 @@
         <v>23</v>
       </c>
       <c r="M13" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N13" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>491</v>
+        <v>543</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>123</v>
@@ -2835,7 +2991,7 @@
     </row>
     <row r="15" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>492</v>
+        <v>544</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>131</v>
@@ -2874,12 +3030,12 @@
         <v>467</v>
       </c>
       <c r="N15" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>493</v>
+        <v>545</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>139</v>
@@ -2923,7 +3079,7 @@
     </row>
     <row r="17" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>494</v>
+        <v>546</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>148</v>
@@ -2967,7 +3123,7 @@
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>495</v>
+        <v>547</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>156</v>
@@ -3003,15 +3159,15 @@
         <v>23</v>
       </c>
       <c r="M18" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N18" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>496</v>
+        <v>548</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>165</v>
@@ -3047,15 +3203,15 @@
         <v>23</v>
       </c>
       <c r="M19" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N19" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>497</v>
+        <v>549</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>173</v>
@@ -3094,12 +3250,12 @@
         <v>467</v>
       </c>
       <c r="N20" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>498</v>
+        <v>550</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>181</v>
@@ -3143,7 +3299,7 @@
     </row>
     <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>499</v>
+        <v>551</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>190</v>
@@ -3182,12 +3338,12 @@
         <v>467</v>
       </c>
       <c r="N22" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>199</v>
@@ -3226,12 +3382,12 @@
         <v>469</v>
       </c>
       <c r="N23" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>501</v>
+        <v>553</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>207</v>
@@ -3267,15 +3423,15 @@
         <v>23</v>
       </c>
       <c r="M24" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N24" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>502</v>
+        <v>554</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>216</v>
@@ -3311,7 +3467,7 @@
         <v>23</v>
       </c>
       <c r="M25" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="N25" t="s">
         <v>488</v>
@@ -3319,7 +3475,7 @@
     </row>
     <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>503</v>
+        <v>555</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>225</v>
@@ -3358,12 +3514,12 @@
         <v>469</v>
       </c>
       <c r="N26" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>504</v>
+        <v>556</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>234</v>
@@ -3399,15 +3555,15 @@
         <v>23</v>
       </c>
       <c r="M27" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="N27" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>505</v>
+        <v>557</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>243</v>
@@ -3443,15 +3599,15 @@
         <v>23</v>
       </c>
       <c r="M28" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="N28" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>506</v>
+        <v>558</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>251</v>
@@ -3495,7 +3651,7 @@
     </row>
     <row r="30" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>507</v>
+        <v>559</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>259</v>
@@ -3531,7 +3687,7 @@
         <v>23</v>
       </c>
       <c r="M30" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="N30" t="s">
         <v>470</v>
@@ -3539,7 +3695,7 @@
     </row>
     <row r="31" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>508</v>
+        <v>560</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>268</v>
@@ -3578,12 +3734,12 @@
         <v>469</v>
       </c>
       <c r="N31" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>509</v>
+        <v>561</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>276</v>
@@ -3622,12 +3778,12 @@
         <v>467</v>
       </c>
       <c r="N32" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>510</v>
+        <v>562</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>284</v>
@@ -3671,7 +3827,7 @@
     </row>
     <row r="34" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>511</v>
+        <v>563</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>292</v>
@@ -3715,7 +3871,7 @@
     </row>
     <row r="35" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>512</v>
+        <v>564</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>301</v>
@@ -3754,12 +3910,12 @@
         <v>467</v>
       </c>
       <c r="N35" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>513</v>
+        <v>565</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>310</v>
@@ -3798,12 +3954,12 @@
         <v>469</v>
       </c>
       <c r="N36" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
-        <v>514</v>
+        <v>566</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>319</v>
@@ -3842,12 +3998,12 @@
         <v>469</v>
       </c>
       <c r="N37" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>515</v>
+        <v>567</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>327</v>
@@ -3883,7 +4039,7 @@
         <v>23</v>
       </c>
       <c r="M38" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="N38" t="s">
         <v>475</v>
@@ -3891,7 +4047,7 @@
     </row>
     <row r="39" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>516</v>
+        <v>568</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>336</v>
@@ -3935,7 +4091,7 @@
     </row>
     <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>517</v>
+        <v>569</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>344</v>
@@ -3979,7 +4135,7 @@
     </row>
     <row r="41" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>518</v>
+        <v>570</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>352</v>
@@ -4015,15 +4171,15 @@
         <v>23</v>
       </c>
       <c r="M41" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="N41" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>519</v>
+        <v>571</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>360</v>
@@ -4062,12 +4218,12 @@
         <v>469</v>
       </c>
       <c r="N42" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
-        <v>520</v>
+        <v>572</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>368</v>
@@ -4106,12 +4262,12 @@
         <v>469</v>
       </c>
       <c r="N43" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>521</v>
+        <v>573</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>377</v>
@@ -4147,15 +4303,15 @@
         <v>23</v>
       </c>
       <c r="M44" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N44" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>522</v>
+        <v>574</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>386</v>
@@ -4191,15 +4347,15 @@
         <v>23</v>
       </c>
       <c r="M45" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N45" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
-        <v>523</v>
+        <v>575</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>394</v>
@@ -4238,12 +4394,12 @@
         <v>469</v>
       </c>
       <c r="N46" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>524</v>
+        <v>576</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>402</v>
@@ -4279,15 +4435,15 @@
         <v>23</v>
       </c>
       <c r="M47" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="N47" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
-        <v>525</v>
+        <v>577</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>410</v>
@@ -4326,12 +4482,12 @@
         <v>467</v>
       </c>
       <c r="N48" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
-        <v>526</v>
+        <v>578</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>418</v>
@@ -4367,15 +4523,15 @@
         <v>23</v>
       </c>
       <c r="M49" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N49" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>527</v>
+        <v>579</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>427</v>
@@ -4411,7 +4567,7 @@
         <v>23</v>
       </c>
       <c r="M50" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N50" t="s">
         <v>470</v>
@@ -4419,7 +4575,7 @@
     </row>
     <row r="51" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
-        <v>528</v>
+        <v>580</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>436</v>
@@ -4455,7 +4611,7 @@
         <v>23</v>
       </c>
       <c r="M51" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="N51" t="s">
         <v>470</v>

--- a/FinalProjectItBootcamp/data/pet-store-data.xlsx
+++ b/FinalProjectItBootcamp/data/pet-store-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="582">
   <si>
     <t>ITEM_ID</t>
   </si>
@@ -1759,6 +1759,9 @@
   </si>
   <si>
     <t>f6abb</t>
+  </si>
+  <si>
+    <t>e29e3</t>
   </si>
 </sst>
 </file>
@@ -2419,7 +2422,7 @@
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>531</v>
+        <v>581</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>

--- a/FinalProjectItBootcamp/data/pet-store-data.xlsx
+++ b/FinalProjectItBootcamp/data/pet-store-data.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14904" windowHeight="3636" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3468"/>
   </bookViews>
   <sheets>
     <sheet name="cart_items" sheetId="1" r:id="rId1"/>
     <sheet name="users" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G7"/>
+  <oleSize ref="A1:B10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="522">
   <si>
     <t>ITEM_ID</t>
   </si>
@@ -1413,205 +1413,25 @@
     <t>https://petstore.octoperf.com/actions/Catalog.action?viewItem=&amp;itemId=EST-13</t>
   </si>
   <si>
-    <t>8cbc3</t>
-  </si>
-  <si>
-    <t>0a4a7</t>
-  </si>
-  <si>
     <t>english</t>
   </si>
   <si>
-    <t>a4bad</t>
-  </si>
-  <si>
     <t>japanese</t>
   </si>
   <si>
     <t>BIRDS</t>
   </si>
   <si>
-    <t>b934b</t>
-  </si>
-  <si>
-    <t>6da17</t>
-  </si>
-  <si>
     <t>CATS</t>
   </si>
   <si>
-    <t>459d1</t>
-  </si>
-  <si>
     <t>DOGS</t>
   </si>
   <si>
-    <t>d1acd</t>
-  </si>
-  <si>
     <t>FISH</t>
   </si>
   <si>
-    <t>f4551</t>
-  </si>
-  <si>
-    <t>2d5e6</t>
-  </si>
-  <si>
-    <t>4d2ca</t>
-  </si>
-  <si>
-    <t>15da4</t>
-  </si>
-  <si>
-    <t>655f0</t>
-  </si>
-  <si>
-    <t>2ec11</t>
-  </si>
-  <si>
-    <t>45cbe</t>
-  </si>
-  <si>
-    <t>0536e</t>
-  </si>
-  <si>
-    <t>1d1a8</t>
-  </si>
-  <si>
-    <t>84ba3</t>
-  </si>
-  <si>
     <t>REPTILES</t>
-  </si>
-  <si>
-    <t>52223</t>
-  </si>
-  <si>
-    <t>87ac3</t>
-  </si>
-  <si>
-    <t>79d8b</t>
-  </si>
-  <si>
-    <t>21acd</t>
-  </si>
-  <si>
-    <t>a9e46</t>
-  </si>
-  <si>
-    <t>9f863</t>
-  </si>
-  <si>
-    <t>c9b0d</t>
-  </si>
-  <si>
-    <t>7de74</t>
-  </si>
-  <si>
-    <t>c5651</t>
-  </si>
-  <si>
-    <t>61321</t>
-  </si>
-  <si>
-    <t>62197</t>
-  </si>
-  <si>
-    <t>d9d98</t>
-  </si>
-  <si>
-    <t>62d46</t>
-  </si>
-  <si>
-    <t>74e9d</t>
-  </si>
-  <si>
-    <t>b315e</t>
-  </si>
-  <si>
-    <t>79c2e</t>
-  </si>
-  <si>
-    <t>d5b84</t>
-  </si>
-  <si>
-    <t>15a46</t>
-  </si>
-  <si>
-    <t>c9b23</t>
-  </si>
-  <si>
-    <t>6b3af</t>
-  </si>
-  <si>
-    <t>d3423</t>
-  </si>
-  <si>
-    <t>f61a0</t>
-  </si>
-  <si>
-    <t>c3db1</t>
-  </si>
-  <si>
-    <t>1d832</t>
-  </si>
-  <si>
-    <t>0a7fc</t>
-  </si>
-  <si>
-    <t>b9d59</t>
-  </si>
-  <si>
-    <t>70894</t>
-  </si>
-  <si>
-    <t>ffad4</t>
-  </si>
-  <si>
-    <t>859c9</t>
-  </si>
-  <si>
-    <t>bb41c</t>
-  </si>
-  <si>
-    <t>4a5c8</t>
-  </si>
-  <si>
-    <t>7d518</t>
-  </si>
-  <si>
-    <t>d5830</t>
-  </si>
-  <si>
-    <t>1d61f</t>
-  </si>
-  <si>
-    <t>af105</t>
-  </si>
-  <si>
-    <t>71876</t>
-  </si>
-  <si>
-    <t>a68a4</t>
-  </si>
-  <si>
-    <t>b2397</t>
-  </si>
-  <si>
-    <t>25672</t>
-  </si>
-  <si>
-    <t>29764</t>
-  </si>
-  <si>
-    <t>6b769</t>
-  </si>
-  <si>
-    <t>16395</t>
-  </si>
-  <si>
-    <t>0e81f</t>
   </si>
   <si>
     <t>37326</t>
@@ -1768,7 +1588,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2250,14 +2069,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="28.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="108.0" collapsed="true"/>
+    <col min="1" max="1" width="28.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="108" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -2369,20 +2188,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" style="3" width="17.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="25.88671875" collapsed="true"/>
-    <col min="6" max="6" style="3" width="17.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="27.44140625" collapsed="true"/>
-    <col min="8" max="16384" style="3" width="17.33203125" collapsed="true"/>
+    <col min="1" max="4" width="17.33203125" style="3" collapsed="1"/>
+    <col min="5" max="5" width="25.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.33203125" style="3" collapsed="1"/>
+    <col min="7" max="7" width="27.44140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="17.33203125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2420,9 +2239,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>581</v>
+        <v>521</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
@@ -2458,15 +2277,15 @@
         <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>532</v>
+        <v>472</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>24</v>
@@ -2502,15 +2321,15 @@
         <v>23</v>
       </c>
       <c r="M3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N3" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>533</v>
+        <v>473</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>33</v>
@@ -2546,15 +2365,15 @@
         <v>23</v>
       </c>
       <c r="M4" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N4" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>534</v>
+        <v>474</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>42</v>
@@ -2590,15 +2409,15 @@
         <v>23</v>
       </c>
       <c r="M5" t="s">
+        <v>465</v>
+      </c>
+      <c r="N5" t="s">
         <v>467</v>
       </c>
-      <c r="N5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>535</v>
+        <v>475</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>51</v>
@@ -2634,15 +2453,15 @@
         <v>23</v>
       </c>
       <c r="M6" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N6" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>536</v>
+        <v>476</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>60</v>
@@ -2678,15 +2497,15 @@
         <v>23</v>
       </c>
       <c r="M7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N7" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>537</v>
+        <v>477</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>69</v>
@@ -2722,15 +2541,15 @@
         <v>23</v>
       </c>
       <c r="M8" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N8" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>538</v>
+        <v>478</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>78</v>
@@ -2766,15 +2585,15 @@
         <v>23</v>
       </c>
       <c r="M9" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N9" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>539</v>
+        <v>479</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>87</v>
@@ -2810,15 +2629,15 @@
         <v>23</v>
       </c>
       <c r="M10" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N10" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>96</v>
@@ -2854,15 +2673,15 @@
         <v>23</v>
       </c>
       <c r="M11" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N11" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>541</v>
+        <v>481</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>105</v>
@@ -2898,15 +2717,15 @@
         <v>23</v>
       </c>
       <c r="M12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N12" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>542</v>
+        <v>482</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>114</v>
@@ -2942,15 +2761,15 @@
         <v>23</v>
       </c>
       <c r="M13" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N13" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>543</v>
+        <v>483</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>123</v>
@@ -2986,15 +2805,15 @@
         <v>23</v>
       </c>
       <c r="M14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N14" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>544</v>
+        <v>484</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>131</v>
@@ -3030,15 +2849,15 @@
         <v>23</v>
       </c>
       <c r="M15" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N15" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>545</v>
+        <v>485</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>139</v>
@@ -3074,15 +2893,15 @@
         <v>23</v>
       </c>
       <c r="M16" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N16" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>546</v>
+        <v>486</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>148</v>
@@ -3118,15 +2937,15 @@
         <v>23</v>
       </c>
       <c r="M17" t="s">
+        <v>466</v>
+      </c>
+      <c r="N17" t="s">
         <v>469</v>
       </c>
-      <c r="N17" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>547</v>
+        <v>487</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>156</v>
@@ -3162,15 +2981,15 @@
         <v>23</v>
       </c>
       <c r="M18" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N18" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>548</v>
+        <v>488</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>165</v>
@@ -3206,15 +3025,15 @@
         <v>23</v>
       </c>
       <c r="M19" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N19" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>549</v>
+        <v>489</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>173</v>
@@ -3250,15 +3069,15 @@
         <v>23</v>
       </c>
       <c r="M20" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N20" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>550</v>
+        <v>490</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>181</v>
@@ -3294,15 +3113,15 @@
         <v>23</v>
       </c>
       <c r="M21" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N21" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>551</v>
+        <v>491</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>190</v>
@@ -3338,15 +3157,15 @@
         <v>23</v>
       </c>
       <c r="M22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N22" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>552</v>
+        <v>492</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>199</v>
@@ -3382,15 +3201,15 @@
         <v>23</v>
       </c>
       <c r="M23" t="s">
+        <v>466</v>
+      </c>
+      <c r="N23" t="s">
         <v>469</v>
       </c>
-      <c r="N23" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>553</v>
+        <v>493</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>207</v>
@@ -3426,15 +3245,15 @@
         <v>23</v>
       </c>
       <c r="M24" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N24" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>554</v>
+        <v>494</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>216</v>
@@ -3470,15 +3289,15 @@
         <v>23</v>
       </c>
       <c r="M25" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N25" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>555</v>
+        <v>495</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>225</v>
@@ -3514,15 +3333,15 @@
         <v>23</v>
       </c>
       <c r="M26" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N26" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>556</v>
+        <v>496</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>234</v>
@@ -3558,15 +3377,15 @@
         <v>23</v>
       </c>
       <c r="M27" t="s">
+        <v>466</v>
+      </c>
+      <c r="N27" t="s">
         <v>469</v>
       </c>
-      <c r="N27" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>557</v>
+        <v>497</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>243</v>
@@ -3602,15 +3421,15 @@
         <v>23</v>
       </c>
       <c r="M28" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N28" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>558</v>
+        <v>498</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>251</v>
@@ -3646,15 +3465,15 @@
         <v>23</v>
       </c>
       <c r="M29" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N29" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>559</v>
+        <v>499</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>259</v>
@@ -3690,15 +3509,15 @@
         <v>23</v>
       </c>
       <c r="M30" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N30" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>268</v>
@@ -3734,15 +3553,15 @@
         <v>23</v>
       </c>
       <c r="M31" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N31" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>561</v>
+        <v>501</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>276</v>
@@ -3778,15 +3597,15 @@
         <v>23</v>
       </c>
       <c r="M32" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N32" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>562</v>
+        <v>502</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>284</v>
@@ -3822,15 +3641,15 @@
         <v>23</v>
       </c>
       <c r="M33" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N33" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>563</v>
+        <v>503</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>292</v>
@@ -3866,15 +3685,15 @@
         <v>23</v>
       </c>
       <c r="M34" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N34" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>564</v>
+        <v>504</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>301</v>
@@ -3910,15 +3729,15 @@
         <v>23</v>
       </c>
       <c r="M35" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N35" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>565</v>
+        <v>505</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>310</v>
@@ -3954,15 +3773,15 @@
         <v>23</v>
       </c>
       <c r="M36" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N36" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
-        <v>566</v>
+        <v>506</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>319</v>
@@ -3998,15 +3817,15 @@
         <v>23</v>
       </c>
       <c r="M37" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N37" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>567</v>
+        <v>507</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>327</v>
@@ -4042,15 +3861,15 @@
         <v>23</v>
       </c>
       <c r="M38" t="s">
+        <v>466</v>
+      </c>
+      <c r="N38" t="s">
         <v>469</v>
       </c>
-      <c r="N38" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>568</v>
+        <v>508</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>336</v>
@@ -4086,15 +3905,15 @@
         <v>23</v>
       </c>
       <c r="M39" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N39" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>569</v>
+        <v>509</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>344</v>
@@ -4130,15 +3949,15 @@
         <v>23</v>
       </c>
       <c r="M40" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N40" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>570</v>
+        <v>510</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>352</v>
@@ -4174,15 +3993,15 @@
         <v>23</v>
       </c>
       <c r="M41" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N41" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>571</v>
+        <v>511</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>360</v>
@@ -4218,15 +4037,15 @@
         <v>23</v>
       </c>
       <c r="M42" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N42" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
-        <v>572</v>
+        <v>512</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>368</v>
@@ -4262,15 +4081,15 @@
         <v>23</v>
       </c>
       <c r="M43" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N43" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>573</v>
+        <v>513</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>377</v>
@@ -4306,15 +4125,15 @@
         <v>23</v>
       </c>
       <c r="M44" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N44" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>574</v>
+        <v>514</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>386</v>
@@ -4350,15 +4169,15 @@
         <v>23</v>
       </c>
       <c r="M45" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N45" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
-        <v>575</v>
+        <v>515</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>394</v>
@@ -4394,15 +4213,15 @@
         <v>23</v>
       </c>
       <c r="M46" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N46" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>576</v>
+        <v>516</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>402</v>
@@ -4438,15 +4257,15 @@
         <v>23</v>
       </c>
       <c r="M47" t="s">
+        <v>466</v>
+      </c>
+      <c r="N47" t="s">
         <v>469</v>
       </c>
-      <c r="N47" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
-        <v>577</v>
+        <v>517</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>410</v>
@@ -4482,15 +4301,15 @@
         <v>23</v>
       </c>
       <c r="M48" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N48" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
-        <v>578</v>
+        <v>518</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>418</v>
@@ -4526,15 +4345,15 @@
         <v>23</v>
       </c>
       <c r="M49" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N49" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>579</v>
+        <v>519</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>427</v>
@@ -4570,15 +4389,15 @@
         <v>23</v>
       </c>
       <c r="M50" t="s">
+        <v>465</v>
+      </c>
+      <c r="N50" t="s">
         <v>467</v>
       </c>
-      <c r="N50" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
-        <v>580</v>
+        <v>520</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>436</v>
@@ -4614,13 +4433,13 @@
         <v>23</v>
       </c>
       <c r="M51" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N51" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="14"/>
     </row>
   </sheetData>

--- a/FinalProjectItBootcamp/data/pet-store-data.xlsx
+++ b/FinalProjectItBootcamp/data/pet-store-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="524">
   <si>
     <t>ITEM_ID</t>
   </si>
@@ -1582,12 +1582,19 @@
   </si>
   <si>
     <t>e29e3</t>
+  </si>
+  <si>
+    <t>146c3</t>
+  </si>
+  <si>
+    <t>765ba</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2075,8 +2082,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="108" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="28.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="108.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -2194,11 +2201,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="17.33203125" style="3" collapsed="1"/>
-    <col min="5" max="5" width="25.88671875" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.33203125" style="3" collapsed="1"/>
-    <col min="7" max="7" width="27.44140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="17.33203125" style="3" collapsed="1"/>
+    <col min="1" max="4" style="3" width="17.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="25.88671875" collapsed="true"/>
+    <col min="6" max="6" style="3" width="17.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="27.44140625" collapsed="true"/>
+    <col min="8" max="16384" style="3" width="17.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2241,7 +2248,7 @@
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>

--- a/FinalProjectItBootcamp/data/pet-store-data.xlsx
+++ b/FinalProjectItBootcamp/data/pet-store-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="526">
   <si>
     <t>ITEM_ID</t>
   </si>
@@ -1588,6 +1588,12 @@
   </si>
   <si>
     <t>765ba</t>
+  </si>
+  <si>
+    <t>c76cb</t>
+  </si>
+  <si>
+    <t>ce9aa</t>
   </si>
 </sst>
 </file>
@@ -2248,7 +2254,7 @@
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>

--- a/FinalProjectItBootcamp/data/pet-store-data.xlsx
+++ b/FinalProjectItBootcamp/data/pet-store-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="630">
   <si>
     <t>ITEM_ID</t>
   </si>
@@ -1594,6 +1594,318 @@
   </si>
   <si>
     <t>ce9aa</t>
+  </si>
+  <si>
+    <t>18abe</t>
+  </si>
+  <si>
+    <t>ec6e2</t>
+  </si>
+  <si>
+    <t>42cb8</t>
+  </si>
+  <si>
+    <t>23d33</t>
+  </si>
+  <si>
+    <t>affc7</t>
+  </si>
+  <si>
+    <t>fc4ad</t>
+  </si>
+  <si>
+    <t>9e037</t>
+  </si>
+  <si>
+    <t>a1c94</t>
+  </si>
+  <si>
+    <t>ce6d4</t>
+  </si>
+  <si>
+    <t>bd6c8</t>
+  </si>
+  <si>
+    <t>c8621</t>
+  </si>
+  <si>
+    <t>59ecf</t>
+  </si>
+  <si>
+    <t>aaafa</t>
+  </si>
+  <si>
+    <t>8bb17</t>
+  </si>
+  <si>
+    <t>408f8</t>
+  </si>
+  <si>
+    <t>222c7</t>
+  </si>
+  <si>
+    <t>e4c2c</t>
+  </si>
+  <si>
+    <t>1f318</t>
+  </si>
+  <si>
+    <t>83f3d</t>
+  </si>
+  <si>
+    <t>981c0</t>
+  </si>
+  <si>
+    <t>e542d</t>
+  </si>
+  <si>
+    <t>8bd78</t>
+  </si>
+  <si>
+    <t>df5a9</t>
+  </si>
+  <si>
+    <t>3b674</t>
+  </si>
+  <si>
+    <t>72bc1</t>
+  </si>
+  <si>
+    <t>dd9e1</t>
+  </si>
+  <si>
+    <t>63f92</t>
+  </si>
+  <si>
+    <t>9efc1</t>
+  </si>
+  <si>
+    <t>d1152</t>
+  </si>
+  <si>
+    <t>1b91d</t>
+  </si>
+  <si>
+    <t>cc135</t>
+  </si>
+  <si>
+    <t>b4270</t>
+  </si>
+  <si>
+    <t>dcb8f</t>
+  </si>
+  <si>
+    <t>e4119</t>
+  </si>
+  <si>
+    <t>7330e</t>
+  </si>
+  <si>
+    <t>8d799</t>
+  </si>
+  <si>
+    <t>e61ee</t>
+  </si>
+  <si>
+    <t>3348a</t>
+  </si>
+  <si>
+    <t>bd212</t>
+  </si>
+  <si>
+    <t>e861e</t>
+  </si>
+  <si>
+    <t>ea3f0</t>
+  </si>
+  <si>
+    <t>6ac59</t>
+  </si>
+  <si>
+    <t>d26fb</t>
+  </si>
+  <si>
+    <t>17aab</t>
+  </si>
+  <si>
+    <t>1d9aa</t>
+  </si>
+  <si>
+    <t>1e0eb</t>
+  </si>
+  <si>
+    <t>1520e</t>
+  </si>
+  <si>
+    <t>75c28</t>
+  </si>
+  <si>
+    <t>3ff65</t>
+  </si>
+  <si>
+    <t>f8a75</t>
+  </si>
+  <si>
+    <t>5eeca</t>
+  </si>
+  <si>
+    <t>dc88d</t>
+  </si>
+  <si>
+    <t>79083</t>
+  </si>
+  <si>
+    <t>cc45b</t>
+  </si>
+  <si>
+    <t>034ca</t>
+  </si>
+  <si>
+    <t>a800e</t>
+  </si>
+  <si>
+    <t>2e9ab</t>
+  </si>
+  <si>
+    <t>5103d</t>
+  </si>
+  <si>
+    <t>e3f52</t>
+  </si>
+  <si>
+    <t>daaa8</t>
+  </si>
+  <si>
+    <t>c51cd</t>
+  </si>
+  <si>
+    <t>46425</t>
+  </si>
+  <si>
+    <t>397be</t>
+  </si>
+  <si>
+    <t>29944</t>
+  </si>
+  <si>
+    <t>9e407</t>
+  </si>
+  <si>
+    <t>4d23b</t>
+  </si>
+  <si>
+    <t>71640</t>
+  </si>
+  <si>
+    <t>79639</t>
+  </si>
+  <si>
+    <t>fa722</t>
+  </si>
+  <si>
+    <t>9d821</t>
+  </si>
+  <si>
+    <t>64b2d</t>
+  </si>
+  <si>
+    <t>14bf7</t>
+  </si>
+  <si>
+    <t>16bd4</t>
+  </si>
+  <si>
+    <t>f7600</t>
+  </si>
+  <si>
+    <t>edcac</t>
+  </si>
+  <si>
+    <t>e2722</t>
+  </si>
+  <si>
+    <t>7446b</t>
+  </si>
+  <si>
+    <t>84553</t>
+  </si>
+  <si>
+    <t>2dae5</t>
+  </si>
+  <si>
+    <t>649d3</t>
+  </si>
+  <si>
+    <t>fad67</t>
+  </si>
+  <si>
+    <t>17bd1</t>
+  </si>
+  <si>
+    <t>4b18f</t>
+  </si>
+  <si>
+    <t>5a885</t>
+  </si>
+  <si>
+    <t>e60f4</t>
+  </si>
+  <si>
+    <t>b4272</t>
+  </si>
+  <si>
+    <t>1c0e2</t>
+  </si>
+  <si>
+    <t>90232</t>
+  </si>
+  <si>
+    <t>b2d72</t>
+  </si>
+  <si>
+    <t>b5985</t>
+  </si>
+  <si>
+    <t>30ac7</t>
+  </si>
+  <si>
+    <t>7b10a</t>
+  </si>
+  <si>
+    <t>c678f</t>
+  </si>
+  <si>
+    <t>53755</t>
+  </si>
+  <si>
+    <t>b6189</t>
+  </si>
+  <si>
+    <t>f9646</t>
+  </si>
+  <si>
+    <t>fba3b</t>
+  </si>
+  <si>
+    <t>cc145</t>
+  </si>
+  <si>
+    <t>04964</t>
+  </si>
+  <si>
+    <t>abcf5</t>
+  </si>
+  <si>
+    <t>dd3ed</t>
+  </si>
+  <si>
+    <t>b8564</t>
+  </si>
+  <si>
+    <t>48731</t>
+  </si>
+  <si>
+    <t>f598c</t>
   </si>
 </sst>
 </file>
@@ -2254,7 +2566,7 @@
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>525</v>
+        <v>580</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
@@ -2293,12 +2605,12 @@
         <v>465</v>
       </c>
       <c r="N2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>472</v>
+        <v>581</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>24</v>
@@ -2342,7 +2654,7 @@
     </row>
     <row r="4" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>473</v>
+        <v>582</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>33</v>
@@ -2381,12 +2693,12 @@
         <v>466</v>
       </c>
       <c r="N4" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>474</v>
+        <v>583</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>42</v>
@@ -2422,15 +2734,15 @@
         <v>23</v>
       </c>
       <c r="M5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>475</v>
+        <v>584</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>51</v>
@@ -2466,15 +2778,15 @@
         <v>23</v>
       </c>
       <c r="M6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N6" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>476</v>
+        <v>585</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>60</v>
@@ -2518,7 +2830,7 @@
     </row>
     <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>477</v>
+        <v>586</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>69</v>
@@ -2562,7 +2874,7 @@
     </row>
     <row r="9" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>478</v>
+        <v>587</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>78</v>
@@ -2601,12 +2913,12 @@
         <v>466</v>
       </c>
       <c r="N9" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>479</v>
+        <v>588</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>87</v>
@@ -2645,12 +2957,12 @@
         <v>466</v>
       </c>
       <c r="N10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>480</v>
+        <v>589</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>96</v>
@@ -2686,15 +2998,15 @@
         <v>23</v>
       </c>
       <c r="M11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N11" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>481</v>
+        <v>590</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>105</v>
@@ -2730,7 +3042,7 @@
         <v>23</v>
       </c>
       <c r="M12" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N12" t="s">
         <v>471</v>
@@ -2738,7 +3050,7 @@
     </row>
     <row r="13" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>482</v>
+        <v>591</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>114</v>
@@ -2782,7 +3094,7 @@
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>483</v>
+        <v>592</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>123</v>
@@ -2818,15 +3130,15 @@
         <v>23</v>
       </c>
       <c r="M14" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N14" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>484</v>
+        <v>593</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>131</v>
@@ -2870,7 +3182,7 @@
     </row>
     <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>485</v>
+        <v>594</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>139</v>
@@ -2909,12 +3221,12 @@
         <v>465</v>
       </c>
       <c r="N16" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>486</v>
+        <v>595</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>148</v>
@@ -2950,15 +3262,15 @@
         <v>23</v>
       </c>
       <c r="M17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N17" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>487</v>
+        <v>596</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>156</v>
@@ -2997,12 +3309,12 @@
         <v>465</v>
       </c>
       <c r="N18" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>488</v>
+        <v>597</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>165</v>
@@ -3046,7 +3358,7 @@
     </row>
     <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>489</v>
+        <v>598</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>173</v>
@@ -3082,15 +3394,15 @@
         <v>23</v>
       </c>
       <c r="M20" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N20" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>490</v>
+        <v>599</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>181</v>
@@ -3129,12 +3441,12 @@
         <v>465</v>
       </c>
       <c r="N21" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>491</v>
+        <v>600</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>190</v>
@@ -3170,15 +3482,15 @@
         <v>23</v>
       </c>
       <c r="M22" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N22" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>492</v>
+        <v>601</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>199</v>
@@ -3214,15 +3526,15 @@
         <v>23</v>
       </c>
       <c r="M23" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N23" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>493</v>
+        <v>602</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>207</v>
@@ -3258,15 +3570,15 @@
         <v>23</v>
       </c>
       <c r="M24" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N24" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>494</v>
+        <v>603</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>216</v>
@@ -3302,7 +3614,7 @@
         <v>23</v>
       </c>
       <c r="M25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N25" t="s">
         <v>471</v>
@@ -3310,7 +3622,7 @@
     </row>
     <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>495</v>
+        <v>604</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>225</v>
@@ -3346,7 +3658,7 @@
         <v>23</v>
       </c>
       <c r="M26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N26" t="s">
         <v>468</v>
@@ -3354,7 +3666,7 @@
     </row>
     <row r="27" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>496</v>
+        <v>605</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>234</v>
@@ -3393,12 +3705,12 @@
         <v>466</v>
       </c>
       <c r="N27" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>497</v>
+        <v>606</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>243</v>
@@ -3437,12 +3749,12 @@
         <v>466</v>
       </c>
       <c r="N28" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>498</v>
+        <v>607</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>251</v>
@@ -3481,12 +3793,12 @@
         <v>465</v>
       </c>
       <c r="N29" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>499</v>
+        <v>608</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>259</v>
@@ -3525,12 +3837,12 @@
         <v>466</v>
       </c>
       <c r="N30" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>500</v>
+        <v>609</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>268</v>
@@ -3566,15 +3878,15 @@
         <v>23</v>
       </c>
       <c r="M31" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N31" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>276</v>
@@ -3610,7 +3922,7 @@
         <v>23</v>
       </c>
       <c r="M32" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N32" t="s">
         <v>471</v>
@@ -3618,7 +3930,7 @@
     </row>
     <row r="33" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>502</v>
+        <v>611</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>284</v>
@@ -3662,7 +3974,7 @@
     </row>
     <row r="34" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>503</v>
+        <v>612</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>292</v>
@@ -3698,7 +4010,7 @@
         <v>23</v>
       </c>
       <c r="M34" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N34" t="s">
         <v>470</v>
@@ -3706,7 +4018,7 @@
     </row>
     <row r="35" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>504</v>
+        <v>613</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>301</v>
@@ -3742,15 +4054,15 @@
         <v>23</v>
       </c>
       <c r="M35" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N35" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>505</v>
+        <v>614</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>310</v>
@@ -3794,7 +4106,7 @@
     </row>
     <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
-        <v>506</v>
+        <v>615</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>319</v>
@@ -3830,15 +4142,15 @@
         <v>23</v>
       </c>
       <c r="M37" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>507</v>
+        <v>616</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>327</v>
@@ -3874,15 +4186,15 @@
         <v>23</v>
       </c>
       <c r="M38" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N38" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>508</v>
+        <v>617</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>336</v>
@@ -3918,15 +4230,15 @@
         <v>23</v>
       </c>
       <c r="M39" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N39" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>509</v>
+        <v>618</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>344</v>
@@ -3965,12 +4277,12 @@
         <v>466</v>
       </c>
       <c r="N40" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>510</v>
+        <v>619</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>352</v>
@@ -4006,15 +4318,15 @@
         <v>23</v>
       </c>
       <c r="M41" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N41" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>511</v>
+        <v>620</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>360</v>
@@ -4053,12 +4365,12 @@
         <v>466</v>
       </c>
       <c r="N42" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
-        <v>512</v>
+        <v>621</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>368</v>
@@ -4102,7 +4414,7 @@
     </row>
     <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>513</v>
+        <v>622</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>377</v>
@@ -4138,15 +4450,15 @@
         <v>23</v>
       </c>
       <c r="M44" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N44" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>514</v>
+        <v>623</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>386</v>
@@ -4182,15 +4494,15 @@
         <v>23</v>
       </c>
       <c r="M45" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N45" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
-        <v>515</v>
+        <v>624</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>394</v>
@@ -4229,12 +4541,12 @@
         <v>466</v>
       </c>
       <c r="N46" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>516</v>
+        <v>625</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>402</v>
@@ -4270,15 +4582,15 @@
         <v>23</v>
       </c>
       <c r="M47" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N47" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
-        <v>517</v>
+        <v>626</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>410</v>
@@ -4317,12 +4629,12 @@
         <v>465</v>
       </c>
       <c r="N48" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
-        <v>518</v>
+        <v>627</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>418</v>
@@ -4358,15 +4670,15 @@
         <v>23</v>
       </c>
       <c r="M49" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N49" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>519</v>
+        <v>628</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>427</v>
@@ -4405,12 +4717,12 @@
         <v>465</v>
       </c>
       <c r="N50" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
-        <v>520</v>
+        <v>629</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>436</v>
@@ -4449,7 +4761,7 @@
         <v>466</v>
       </c>
       <c r="N51" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">

--- a/FinalProjectItBootcamp/data/pet-store-data.xlsx
+++ b/FinalProjectItBootcamp/data/pet-store-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="680">
   <si>
     <t>ITEM_ID</t>
   </si>
@@ -1906,6 +1906,156 @@
   </si>
   <si>
     <t>f598c</t>
+  </si>
+  <si>
+    <t>c77fb</t>
+  </si>
+  <si>
+    <t>4110d</t>
+  </si>
+  <si>
+    <t>71bf4</t>
+  </si>
+  <si>
+    <t>ca939</t>
+  </si>
+  <si>
+    <t>53fa6</t>
+  </si>
+  <si>
+    <t>86ba8</t>
+  </si>
+  <si>
+    <t>8b817</t>
+  </si>
+  <si>
+    <t>d09fe</t>
+  </si>
+  <si>
+    <t>e5852</t>
+  </si>
+  <si>
+    <t>23f88</t>
+  </si>
+  <si>
+    <t>e3809</t>
+  </si>
+  <si>
+    <t>88cfd</t>
+  </si>
+  <si>
+    <t>0eb96</t>
+  </si>
+  <si>
+    <t>34169</t>
+  </si>
+  <si>
+    <t>9854d</t>
+  </si>
+  <si>
+    <t>44b5a</t>
+  </si>
+  <si>
+    <t>fb127</t>
+  </si>
+  <si>
+    <t>dd1d4</t>
+  </si>
+  <si>
+    <t>0d5b7</t>
+  </si>
+  <si>
+    <t>190b8</t>
+  </si>
+  <si>
+    <t>b7183</t>
+  </si>
+  <si>
+    <t>30084</t>
+  </si>
+  <si>
+    <t>725ad</t>
+  </si>
+  <si>
+    <t>ce829</t>
+  </si>
+  <si>
+    <t>1f4f5</t>
+  </si>
+  <si>
+    <t>6d516</t>
+  </si>
+  <si>
+    <t>2578b</t>
+  </si>
+  <si>
+    <t>43149</t>
+  </si>
+  <si>
+    <t>cc801</t>
+  </si>
+  <si>
+    <t>fbbe4</t>
+  </si>
+  <si>
+    <t>043ef</t>
+  </si>
+  <si>
+    <t>3ccb9</t>
+  </si>
+  <si>
+    <t>2a0d3</t>
+  </si>
+  <si>
+    <t>f894b</t>
+  </si>
+  <si>
+    <t>5db6d</t>
+  </si>
+  <si>
+    <t>33f83</t>
+  </si>
+  <si>
+    <t>8f03e</t>
+  </si>
+  <si>
+    <t>9bf08</t>
+  </si>
+  <si>
+    <t>b9406</t>
+  </si>
+  <si>
+    <t>711bb</t>
+  </si>
+  <si>
+    <t>0e9d6</t>
+  </si>
+  <si>
+    <t>d7ee7</t>
+  </si>
+  <si>
+    <t>1b710</t>
+  </si>
+  <si>
+    <t>ae4ba</t>
+  </si>
+  <si>
+    <t>79b90</t>
+  </si>
+  <si>
+    <t>3fac4</t>
+  </si>
+  <si>
+    <t>4322b</t>
+  </si>
+  <si>
+    <t>23717</t>
+  </si>
+  <si>
+    <t>2a9d1</t>
+  </si>
+  <si>
+    <t>e0750</t>
   </si>
 </sst>
 </file>
@@ -2566,7 +2716,7 @@
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>580</v>
+        <v>630</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
@@ -2602,7 +2752,7 @@
         <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N2" t="s">
         <v>470</v>
@@ -2610,7 +2760,7 @@
     </row>
     <row r="3" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>581</v>
+        <v>631</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>24</v>
@@ -2646,15 +2796,15 @@
         <v>23</v>
       </c>
       <c r="M3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>582</v>
+        <v>632</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>33</v>
@@ -2690,7 +2840,7 @@
         <v>23</v>
       </c>
       <c r="M4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N4" t="s">
         <v>471</v>
@@ -2698,7 +2848,7 @@
     </row>
     <row r="5" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>583</v>
+        <v>633</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>42</v>
@@ -2737,12 +2887,12 @@
         <v>466</v>
       </c>
       <c r="N5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>584</v>
+        <v>634</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>51</v>
@@ -2786,7 +2936,7 @@
     </row>
     <row r="7" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>585</v>
+        <v>635</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>60</v>
@@ -2825,12 +2975,12 @@
         <v>465</v>
       </c>
       <c r="N7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>586</v>
+        <v>636</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>69</v>
@@ -2866,15 +3016,15 @@
         <v>23</v>
       </c>
       <c r="M8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N8" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>587</v>
+        <v>637</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>78</v>
@@ -2910,15 +3060,15 @@
         <v>23</v>
       </c>
       <c r="M9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N9" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>588</v>
+        <v>638</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>87</v>
@@ -2954,7 +3104,7 @@
         <v>23</v>
       </c>
       <c r="M10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N10" t="s">
         <v>469</v>
@@ -2962,7 +3112,7 @@
     </row>
     <row r="11" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>589</v>
+        <v>639</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>96</v>
@@ -2998,15 +3148,15 @@
         <v>23</v>
       </c>
       <c r="M11" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N11" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>590</v>
+        <v>640</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>105</v>
@@ -3042,15 +3192,15 @@
         <v>23</v>
       </c>
       <c r="M12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N12" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>591</v>
+        <v>641</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>114</v>
@@ -3086,15 +3236,15 @@
         <v>23</v>
       </c>
       <c r="M13" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>592</v>
+        <v>642</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>123</v>
@@ -3130,15 +3280,15 @@
         <v>23</v>
       </c>
       <c r="M14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N14" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>593</v>
+        <v>643</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>131</v>
@@ -3177,12 +3327,12 @@
         <v>465</v>
       </c>
       <c r="N15" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>594</v>
+        <v>644</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>139</v>
@@ -3218,15 +3368,15 @@
         <v>23</v>
       </c>
       <c r="M16" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N16" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>595</v>
+        <v>645</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>148</v>
@@ -3265,12 +3415,12 @@
         <v>465</v>
       </c>
       <c r="N17" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>596</v>
+        <v>646</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>156</v>
@@ -3306,15 +3456,15 @@
         <v>23</v>
       </c>
       <c r="M18" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N18" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>597</v>
+        <v>647</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>165</v>
@@ -3350,15 +3500,15 @@
         <v>23</v>
       </c>
       <c r="M19" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N19" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>598</v>
+        <v>648</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>173</v>
@@ -3397,12 +3547,12 @@
         <v>466</v>
       </c>
       <c r="N20" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>599</v>
+        <v>649</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>181</v>
@@ -3438,15 +3588,15 @@
         <v>23</v>
       </c>
       <c r="M21" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N21" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>190</v>
@@ -3490,7 +3640,7 @@
     </row>
     <row r="23" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>601</v>
+        <v>651</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>199</v>
@@ -3526,15 +3676,15 @@
         <v>23</v>
       </c>
       <c r="M23" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N23" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>602</v>
+        <v>652</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>207</v>
@@ -3570,15 +3720,15 @@
         <v>23</v>
       </c>
       <c r="M24" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N24" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>603</v>
+        <v>653</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>216</v>
@@ -3617,12 +3767,12 @@
         <v>465</v>
       </c>
       <c r="N25" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>604</v>
+        <v>654</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>225</v>
@@ -3658,15 +3808,15 @@
         <v>23</v>
       </c>
       <c r="M26" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N26" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>605</v>
+        <v>655</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>234</v>
@@ -3702,15 +3852,15 @@
         <v>23</v>
       </c>
       <c r="M27" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N27" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>606</v>
+        <v>656</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>243</v>
@@ -3749,12 +3899,12 @@
         <v>466</v>
       </c>
       <c r="N28" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>607</v>
+        <v>657</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>251</v>
@@ -3793,12 +3943,12 @@
         <v>465</v>
       </c>
       <c r="N29" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>608</v>
+        <v>658</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>259</v>
@@ -3834,7 +3984,7 @@
         <v>23</v>
       </c>
       <c r="M30" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N30" t="s">
         <v>471</v>
@@ -3842,7 +3992,7 @@
     </row>
     <row r="31" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>609</v>
+        <v>659</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>268</v>
@@ -3881,12 +4031,12 @@
         <v>465</v>
       </c>
       <c r="N31" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>610</v>
+        <v>660</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>276</v>
@@ -3922,15 +4072,15 @@
         <v>23</v>
       </c>
       <c r="M32" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N32" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>611</v>
+        <v>661</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>284</v>
@@ -3966,15 +4116,15 @@
         <v>23</v>
       </c>
       <c r="M33" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N33" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>612</v>
+        <v>662</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>292</v>
@@ -4010,7 +4160,7 @@
         <v>23</v>
       </c>
       <c r="M34" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N34" t="s">
         <v>470</v>
@@ -4018,7 +4168,7 @@
     </row>
     <row r="35" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>613</v>
+        <v>663</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>301</v>
@@ -4057,12 +4207,12 @@
         <v>466</v>
       </c>
       <c r="N35" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>614</v>
+        <v>664</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>310</v>
@@ -4106,7 +4256,7 @@
     </row>
     <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
-        <v>615</v>
+        <v>665</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>319</v>
@@ -4142,7 +4292,7 @@
         <v>23</v>
       </c>
       <c r="M37" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N37" t="s">
         <v>468</v>
@@ -4150,7 +4300,7 @@
     </row>
     <row r="38" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>616</v>
+        <v>666</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>327</v>
@@ -4186,15 +4336,15 @@
         <v>23</v>
       </c>
       <c r="M38" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N38" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>617</v>
+        <v>667</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>336</v>
@@ -4233,12 +4383,12 @@
         <v>465</v>
       </c>
       <c r="N39" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>618</v>
+        <v>668</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>344</v>
@@ -4277,12 +4427,12 @@
         <v>466</v>
       </c>
       <c r="N40" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>619</v>
+        <v>669</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>352</v>
@@ -4321,12 +4471,12 @@
         <v>465</v>
       </c>
       <c r="N41" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>620</v>
+        <v>670</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>360</v>
@@ -4362,15 +4512,15 @@
         <v>23</v>
       </c>
       <c r="M42" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N42" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
-        <v>621</v>
+        <v>671</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>368</v>
@@ -4409,12 +4559,12 @@
         <v>466</v>
       </c>
       <c r="N43" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>622</v>
+        <v>672</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>377</v>
@@ -4458,7 +4608,7 @@
     </row>
     <row r="45" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>623</v>
+        <v>673</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>386</v>
@@ -4494,7 +4644,7 @@
         <v>23</v>
       </c>
       <c r="M45" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N45" t="s">
         <v>467</v>
@@ -4502,7 +4652,7 @@
     </row>
     <row r="46" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
-        <v>624</v>
+        <v>674</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>394</v>
@@ -4538,15 +4688,15 @@
         <v>23</v>
       </c>
       <c r="M46" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N46" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>402</v>
@@ -4582,15 +4732,15 @@
         <v>23</v>
       </c>
       <c r="M47" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N47" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
-        <v>626</v>
+        <v>676</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>410</v>
@@ -4634,7 +4784,7 @@
     </row>
     <row r="49" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
-        <v>627</v>
+        <v>677</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>418</v>
@@ -4673,12 +4823,12 @@
         <v>466</v>
       </c>
       <c r="N49" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>628</v>
+        <v>678</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>427</v>
@@ -4714,15 +4864,15 @@
         <v>23</v>
       </c>
       <c r="M50" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N50" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
-        <v>629</v>
+        <v>679</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>436</v>
@@ -4761,7 +4911,7 @@
         <v>466</v>
       </c>
       <c r="N51" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
